--- a/natmiOut/OldD2/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Osm</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H2">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I2">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J2">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N2">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O2">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P2">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q2">
-        <v>788.8343459507503</v>
+        <v>831.6583019978573</v>
       </c>
       <c r="R2">
-        <v>788.8343459507503</v>
+        <v>4989.949811987144</v>
       </c>
       <c r="S2">
-        <v>0.1167805241262136</v>
+        <v>0.1132695212213466</v>
       </c>
       <c r="T2">
-        <v>0.1167805241262136</v>
+        <v>0.08652471786157621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H3">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I3">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J3">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N3">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P3">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q3">
-        <v>402.532975316697</v>
+        <v>466.5250334495938</v>
       </c>
       <c r="R3">
-        <v>402.532975316697</v>
+        <v>4198.725301046345</v>
       </c>
       <c r="S3">
-        <v>0.05959174074616545</v>
+        <v>0.06353939718952548</v>
       </c>
       <c r="T3">
-        <v>0.05959174074616545</v>
+        <v>0.07280504528894702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H4">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I4">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J4">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N4">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O4">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P4">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q4">
-        <v>291.2848773678945</v>
+        <v>348.9546106337705</v>
       </c>
       <c r="R4">
-        <v>291.2848773678945</v>
+        <v>3140.591495703934</v>
       </c>
       <c r="S4">
-        <v>0.04312236253869497</v>
+        <v>0.04752663633552044</v>
       </c>
       <c r="T4">
-        <v>0.04312236253869497</v>
+        <v>0.05445721967613022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H5">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I5">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J5">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N5">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O5">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P5">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q5">
-        <v>549.2280429516363</v>
+        <v>629.4917206486322</v>
       </c>
       <c r="R5">
-        <v>549.2280429516363</v>
+        <v>5665.42548583769</v>
       </c>
       <c r="S5">
-        <v>0.08130875519042258</v>
+        <v>0.08573500154977821</v>
       </c>
       <c r="T5">
-        <v>0.08130875519042258</v>
+        <v>0.09823732907098676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H6">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I6">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J6">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N6">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O6">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P6">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q6">
-        <v>581.1559708257611</v>
+        <v>616.2908731460421</v>
       </c>
       <c r="R6">
-        <v>581.1559708257611</v>
+        <v>5546.61785831438</v>
       </c>
       <c r="S6">
-        <v>0.08603542584129331</v>
+        <v>0.08393708325479769</v>
       </c>
       <c r="T6">
-        <v>0.08603542584129331</v>
+        <v>0.09617722890193035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H7">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I7">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J7">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N7">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O7">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P7">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q7">
-        <v>408.602556134475</v>
+        <v>441.374559847915</v>
       </c>
       <c r="R7">
-        <v>408.602556134475</v>
+        <v>2648.24735908749</v>
       </c>
       <c r="S7">
-        <v>0.06049029293619745</v>
+        <v>0.06011397343495131</v>
       </c>
       <c r="T7">
-        <v>0.06049029293619745</v>
+        <v>0.04592007218634922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H8">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I8">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J8">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N8">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O8">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P8">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q8">
-        <v>974.5974171941025</v>
+        <v>994.6435346064234</v>
       </c>
       <c r="R8">
-        <v>974.5974171941025</v>
+        <v>5967.86120763854</v>
       </c>
       <c r="S8">
-        <v>0.1442812394975094</v>
+        <v>0.1354676514142075</v>
       </c>
       <c r="T8">
-        <v>0.1442812394975094</v>
+        <v>0.1034815031581124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H9">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I9">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J9">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N9">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O9">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P9">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q9">
-        <v>497.3257060787304</v>
+        <v>557.9528360842112</v>
       </c>
       <c r="R9">
-        <v>497.3257060787304</v>
+        <v>5021.575524757901</v>
       </c>
       <c r="S9">
-        <v>0.07362503536444573</v>
+        <v>0.07599160671579984</v>
       </c>
       <c r="T9">
-        <v>0.07362503536444573</v>
+        <v>0.08707310130785606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H10">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I10">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J10">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N10">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O10">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P10">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q10">
-        <v>359.8797271032806</v>
+        <v>417.3414087302359</v>
       </c>
       <c r="R10">
-        <v>359.8797271032806</v>
+        <v>3756.072678572123</v>
       </c>
       <c r="S10">
-        <v>0.05327727344689392</v>
+        <v>0.05684072585959458</v>
       </c>
       <c r="T10">
-        <v>0.05327727344689392</v>
+        <v>0.06512953857778501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H11">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I11">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J11">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N11">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O11">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P11">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q11">
-        <v>678.5660828016934</v>
+        <v>752.8571151485336</v>
       </c>
       <c r="R11">
-        <v>678.5660828016934</v>
+        <v>6775.714036336803</v>
       </c>
       <c r="S11">
-        <v>0.10045620251023</v>
+        <v>0.1025370212455094</v>
       </c>
       <c r="T11">
-        <v>0.10045620251023</v>
+        <v>0.1174895073887116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H12">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I12">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J12">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N12">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O12">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P12">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q12">
-        <v>718.0127374792069</v>
+        <v>737.0692157333115</v>
       </c>
       <c r="R12">
-        <v>718.0127374792069</v>
+        <v>6633.622941599804</v>
       </c>
       <c r="S12">
-        <v>0.1062959596555831</v>
+        <v>0.1003867537575795</v>
       </c>
       <c r="T12">
-        <v>0.1062959596555831</v>
+        <v>0.1150256766196672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H13">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I13">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J13">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N13">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O13">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P13">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q13">
-        <v>504.8246161082217</v>
+        <v>527.873468271607</v>
       </c>
       <c r="R13">
-        <v>504.8246161082217</v>
+        <v>3167.240809629642</v>
       </c>
       <c r="S13">
-        <v>0.07473518814635056</v>
+        <v>0.07189488143500869</v>
       </c>
       <c r="T13">
-        <v>0.07473518814635056</v>
+        <v>0.05491931337556728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.477353</v>
+      </c>
+      <c r="I14">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J14">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.7631495</v>
+      </c>
+      <c r="N14">
+        <v>63.52629899999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2494255238736205</v>
+      </c>
+      <c r="P14">
+        <v>0.1905320411699034</v>
+      </c>
+      <c r="Q14">
+        <v>5.0540782344245</v>
+      </c>
+      <c r="R14">
+        <v>30.324469406547</v>
+      </c>
+      <c r="S14">
+        <v>0.0006883512380664801</v>
+      </c>
+      <c r="T14">
+        <v>0.0005258201502148171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.477353</v>
+      </c>
+      <c r="I15">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J15">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N15">
+        <v>53.453339</v>
+      </c>
+      <c r="O15">
+        <v>0.139917139754138</v>
+      </c>
+      <c r="P15">
+        <v>0.1603205907999899</v>
+      </c>
+      <c r="Q15">
+        <v>2.835123525740778</v>
+      </c>
+      <c r="R15">
+        <v>25.516111731667</v>
+      </c>
+      <c r="S15">
+        <v>0.0003861358488126549</v>
+      </c>
+      <c r="T15">
+        <v>0.0004424442031868336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.477353</v>
+      </c>
+      <c r="I16">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J16">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.32746566666667</v>
+      </c>
+      <c r="N16">
+        <v>39.982397</v>
+      </c>
+      <c r="O16">
+        <v>0.1046561867492399</v>
+      </c>
+      <c r="P16">
+        <v>0.1199177007191215</v>
+      </c>
+      <c r="Q16">
+        <v>2.120635239460111</v>
+      </c>
+      <c r="R16">
+        <v>19.085717155141</v>
+      </c>
+      <c r="S16">
+        <v>0.0002888245541248518</v>
+      </c>
+      <c r="T16">
+        <v>0.0003309424652062362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.477353</v>
+      </c>
+      <c r="I17">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J17">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.04189266666667</v>
+      </c>
+      <c r="N17">
+        <v>72.12567800000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1887930437533183</v>
+      </c>
+      <c r="P17">
+        <v>0.2163238354260682</v>
+      </c>
+      <c r="Q17">
+        <v>3.825489863370445</v>
+      </c>
+      <c r="R17">
+        <v>34.42940877033401</v>
+      </c>
+      <c r="S17">
+        <v>0.0005210209580306711</v>
+      </c>
+      <c r="T17">
+        <v>0.0005969989663699052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.477353</v>
+      </c>
+      <c r="I18">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J18">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>23.53771866666667</v>
+      </c>
+      <c r="N18">
+        <v>70.613156</v>
+      </c>
+      <c r="O18">
+        <v>0.184833931824778</v>
+      </c>
+      <c r="P18">
+        <v>0.211787385034485</v>
+      </c>
+      <c r="Q18">
+        <v>3.745266872896445</v>
+      </c>
+      <c r="R18">
+        <v>33.707401856068</v>
+      </c>
+      <c r="S18">
+        <v>0.0005100948124007823</v>
+      </c>
+      <c r="T18">
+        <v>0.0005844795128874472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.477353</v>
+      </c>
+      <c r="I19">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J19">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.857219</v>
+      </c>
+      <c r="N19">
+        <v>33.714438</v>
+      </c>
+      <c r="O19">
+        <v>0.1323741740449054</v>
+      </c>
+      <c r="P19">
+        <v>0.1011184468504321</v>
+      </c>
+      <c r="Q19">
+        <v>2.682281353769</v>
+      </c>
+      <c r="R19">
+        <v>16.093688122614</v>
+      </c>
+      <c r="S19">
+        <v>0.0003653191749454126</v>
+      </c>
+      <c r="T19">
+        <v>0.0002790612885156137</v>
       </c>
     </row>
   </sheetData>
